--- a/기획/시스템 기획/System_StageScene.xlsx
+++ b/기획/시스템 기획/System_StageScene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A98A20-084E-4C4D-AB38-DEF01851AF1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71732DD3-6AC0-461C-9CE0-1606AFB108CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9915" yWindow="2940" windowWidth="18825" windowHeight="9510" activeTab="1" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="60" yWindow="525" windowWidth="9900" windowHeight="9510" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -1135,13 +1135,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1154,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1165,30 +1174,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,21 +1182,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1225,25 +1195,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6567,9 +6567,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418D2FF-F25B-48B8-A183-D103E9189CDD}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13:L13"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6581,40 +6581,40 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6638,113 +6638,113 @@
       <c r="C8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="9">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C11" s="9">
         <v>3</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="17"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C13" s="49">
+      <c r="C13" s="15">
         <v>5</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
         <v>6</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="51"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
@@ -6779,9 +6779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B49A845-E3D3-42ED-9C11-87B3D99F1D64}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6793,40 +6793,40 @@
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6850,36 +6850,36 @@
       <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="45" t="s">
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="46"/>
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="44"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="34"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -6887,20 +6887,20 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="35"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="25" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="38"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -6908,22 +6908,22 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="41" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="44"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="34"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
@@ -6931,18 +6931,18 @@
       <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C12" s="34"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -6950,18 +6950,18 @@
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C13" s="34"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
@@ -6969,18 +6969,18 @@
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C14" s="34"/>
-      <c r="D14" s="18" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
@@ -6988,20 +6988,20 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C15" s="34"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="18" t="s">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
@@ -7009,20 +7009,20 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="35"/>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="28"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="38"/>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
@@ -7030,20 +7030,20 @@
       <c r="S16" s="10"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="44"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="34"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
@@ -7051,20 +7051,20 @@
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C18" s="34"/>
-      <c r="D18" s="18" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="18" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
@@ -7072,20 +7072,20 @@
       <c r="S18" s="10"/>
     </row>
     <row r="19" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="35"/>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="25" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="28"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="38"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -7093,22 +7093,22 @@
       <c r="S19" s="10"/>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="41" t="s">
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="34"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
@@ -7116,20 +7116,20 @@
       <c r="S20" s="10"/>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C21" s="34"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="29"/>
+      <c r="D21" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="18" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
@@ -7137,682 +7137,737 @@
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C22" s="34"/>
-      <c r="D22" s="18" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="23" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C23" s="34"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="29"/>
+      <c r="D23" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="18" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
     </row>
     <row r="24" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="35"/>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="25" t="s">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="28"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="44"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C26" s="34"/>
-      <c r="D26" s="18" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="18" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
     </row>
     <row r="27" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C27" s="34"/>
-      <c r="D27" s="18" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="18" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
     </row>
     <row r="28" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C28" s="34"/>
-      <c r="D28" s="18" t="s">
+      <c r="C28" s="29"/>
+      <c r="D28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="18" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
       <c r="N28" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="3:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="35"/>
-      <c r="D29" s="25" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="28"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="38"/>
     </row>
     <row r="30" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="41" t="s">
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="44"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="34"/>
     </row>
     <row r="31" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C31" s="34"/>
-      <c r="D31" s="18" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
     </row>
     <row r="32" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="C32" s="34"/>
-      <c r="D32" s="18" t="s">
+      <c r="C32" s="29"/>
+      <c r="D32" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="18" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="34"/>
-      <c r="D33" s="18" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="18" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="34"/>
-      <c r="D34" s="18" t="s">
+      <c r="C34" s="29"/>
+      <c r="D34" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35" s="34"/>
-      <c r="D35" s="18" t="s">
+      <c r="C35" s="29"/>
+      <c r="D35" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="18" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36" s="34"/>
-      <c r="D36" s="18" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="18" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37" s="34"/>
-      <c r="D37" s="18" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="18" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38" s="34"/>
-      <c r="D38" s="18" t="s">
+      <c r="C38" s="29"/>
+      <c r="D38" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="18" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39" s="34"/>
-      <c r="D39" s="18" t="s">
+      <c r="C39" s="29"/>
+      <c r="D39" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="18" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40" s="34"/>
-      <c r="D40" s="18" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="34"/>
-      <c r="D41" s="18" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="18" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C42" s="35"/>
-      <c r="D42" s="25" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="25" t="s">
+      <c r="E42" s="36"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="28"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="29" t="s">
+      <c r="D43" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="31"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="42"/>
     </row>
     <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44" s="34"/>
-      <c r="D44" s="18" t="s">
+      <c r="C44" s="29"/>
+      <c r="D44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="18" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C45" s="35"/>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="30"/>
+      <c r="D45" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="25" t="s">
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="28"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="41" t="s">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="44"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="34"/>
     </row>
     <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47" s="34"/>
-      <c r="D47" s="37" t="s">
+      <c r="C47" s="29"/>
+      <c r="D47" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="37" t="s">
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="40"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="51"/>
     </row>
     <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48" s="34"/>
-      <c r="D48" s="18" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="34"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C50" s="34"/>
-      <c r="D50" s="18" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="18" t="s">
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="34"/>
-      <c r="D51" s="18" t="s">
+      <c r="C51" s="29"/>
+      <c r="D51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="34"/>
-      <c r="D52" s="18" t="s">
+      <c r="C52" s="29"/>
+      <c r="D52" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="18" t="s">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="34"/>
-      <c r="D53" s="18" t="s">
+      <c r="C53" s="29"/>
+      <c r="D53" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C54" s="34"/>
-      <c r="D54" s="18" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="18" t="s">
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C55" s="34"/>
-      <c r="D55" s="18" t="s">
+      <c r="C55" s="29"/>
+      <c r="D55" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C56" s="34"/>
-      <c r="D56" s="18" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C57" s="34"/>
-      <c r="D57" s="18" t="s">
+      <c r="C57" s="29"/>
+      <c r="D57" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="18" t="s">
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C58" s="34"/>
-      <c r="D58" s="18" t="s">
+      <c r="C58" s="29"/>
+      <c r="D58" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="36"/>
-      <c r="H58" s="18" t="s">
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C59" s="34"/>
-      <c r="D59" s="18" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="36"/>
-      <c r="H59" s="18" t="s">
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C60" s="34"/>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C61" s="34"/>
-      <c r="D61" s="37" t="s">
+      <c r="C61" s="29"/>
+      <c r="D61" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="37" t="s">
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
-      <c r="K61" s="38"/>
-      <c r="L61" s="40"/>
+      <c r="I61" s="49"/>
+      <c r="J61" s="49"/>
+      <c r="K61" s="49"/>
+      <c r="L61" s="51"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C62" s="34"/>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="29"/>
+      <c r="D62" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="18" t="s">
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="21"/>
     </row>
     <row r="63" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C63" s="35"/>
-      <c r="D63" s="25" t="s">
+      <c r="C63" s="30"/>
+      <c r="D63" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="25" t="s">
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="28"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="36"/>
+      <c r="L63" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C46:C63"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="C30:C42"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="H60:L60"/>
+    <mergeCell ref="D60:G60"/>
+    <mergeCell ref="D62:G62"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="H56:L56"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="H57:L57"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:L59"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="D63:G63"/>
+    <mergeCell ref="H63:L63"/>
+    <mergeCell ref="H51:L51"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:L48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:L49"/>
+    <mergeCell ref="H46:L46"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:L47"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:L50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H41:L41"/>
+    <mergeCell ref="D41:G41"/>
     <mergeCell ref="A2:O3"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="D12:G12"/>
@@ -7837,85 +7892,30 @@
     <mergeCell ref="D33:G33"/>
     <mergeCell ref="D34:G34"/>
     <mergeCell ref="D36:G36"/>
+    <mergeCell ref="C46:C63"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="C25:C29"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="C30:C42"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:L14"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D18:G18"/>
     <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="H41:L41"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="H51:L51"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:L48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:L49"/>
-    <mergeCell ref="H46:L46"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="D57:G57"/>
-    <mergeCell ref="H57:L57"/>
-    <mergeCell ref="D59:G59"/>
-    <mergeCell ref="H59:L59"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="H63:L63"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:L47"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:L50"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="H60:L60"/>
-    <mergeCell ref="D60:G60"/>
-    <mergeCell ref="D62:G62"/>
-    <mergeCell ref="H62:L62"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="H56:L56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7941,40 +7941,40 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8057,40 +8057,40 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/기획/시스템 기획/System_StageScene.xlsx
+++ b/기획/시스템 기획/System_StageScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71732DD3-6AC0-461C-9CE0-1606AFB108CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF393273-030D-4AD6-AD8B-FFC437C29024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="525" windowWidth="9900" windowHeight="9510" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="4860" yWindow="3315" windowWidth="18825" windowHeight="9510" activeTab="2" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -1388,13 +1388,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1411,7 +1411,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4933950" y="1695450"/>
+          <a:off x="4505325" y="1695450"/>
           <a:ext cx="1866900" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1558,13 +1558,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552449</xdr:colOff>
+      <xdr:colOff>123824</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1598,7 +1598,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934199" y="1543050"/>
+          <a:off x="6505574" y="1543050"/>
           <a:ext cx="657225" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,14 +1610,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1634,7 +1634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457950" y="1638300"/>
+          <a:off x="6029325" y="1638300"/>
           <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1687,14 +1687,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -1728,7 +1728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6543675" y="1724025"/>
+          <a:off x="6115050" y="1724025"/>
           <a:ext cx="285749" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1741,13 +1741,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1764,7 +1764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4752975" y="1628775"/>
+          <a:off x="4324350" y="1628775"/>
           <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1818,13 +1818,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1858,7 +1858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4762500" y="1657350"/>
+          <a:off x="4333875" y="1657350"/>
           <a:ext cx="428625" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3632,6 +3632,59 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그래픽 8" descr="가로 방향 U자형 화살표">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5927A88-E026-4646-A73E-EBEE385B98B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="1590674"/>
+          <a:ext cx="514351" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6567,7 +6620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418D2FF-F25B-48B8-A183-D103E9189CDD}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
@@ -7795,12 +7848,6 @@
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="D53:G53"/>
     <mergeCell ref="H60:L60"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="D62:G62"/>
@@ -7835,6 +7882,12 @@
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="H50:L50"/>
     <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D43:G43"/>
@@ -7927,9 +7980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD18FD45-BEF1-4A24-8E9E-51DEF25B9A61}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획/시스템 기획/System_StageScene.xlsx
+++ b/기획/시스템 기획/System_StageScene.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0623_\Desktop\UnityProject\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF393273-030D-4AD6-AD8B-FFC437C29024}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71732DD3-6AC0-461C-9CE0-1606AFB108CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="3315" windowWidth="18825" windowHeight="9510" activeTab="2" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
+    <workbookView xWindow="60" yWindow="525" windowWidth="9900" windowHeight="9510" xr2:uid="{DD11F2F4-2E31-48F2-A5FF-40AACB5569F8}"/>
   </bookViews>
   <sheets>
     <sheet name="요구 기능" sheetId="1" r:id="rId1"/>
@@ -1388,13 +1388,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1411,7 +1411,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4505325" y="1695450"/>
+          <a:off x="4933950" y="1695450"/>
           <a:ext cx="1866900" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1558,13 +1558,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
+      <xdr:colOff>552449</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1598,7 +1598,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505574" y="1543050"/>
+          <a:off x="6934199" y="1543050"/>
           <a:ext cx="657225" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1610,14 +1610,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1634,7 +1634,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6029325" y="1638300"/>
+          <a:off x="6457950" y="1638300"/>
           <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1687,14 +1687,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
+      <xdr:colOff>476249</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -1728,7 +1728,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6115050" y="1724025"/>
+          <a:off x="6543675" y="1724025"/>
           <a:ext cx="285749" cy="285749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1741,13 +1741,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -1764,7 +1764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4324350" y="1628775"/>
+          <a:off x="4752975" y="1628775"/>
           <a:ext cx="447675" cy="447675"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1818,13 +1818,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1858,7 +1858,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4333875" y="1657350"/>
+          <a:off x="4762500" y="1657350"/>
           <a:ext cx="428625" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3632,59 +3632,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="그래픽 8" descr="가로 방향 U자형 화살표">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5927A88-E026-4646-A73E-EBEE385B98B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7134225" y="1590674"/>
-          <a:ext cx="514351" cy="514351"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6620,7 +6567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418D2FF-F25B-48B8-A183-D103E9189CDD}">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
@@ -7848,6 +7795,12 @@
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="H54:L54"/>
+    <mergeCell ref="H52:L52"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="H53:L53"/>
+    <mergeCell ref="D53:G53"/>
     <mergeCell ref="H60:L60"/>
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="D62:G62"/>
@@ -7882,12 +7835,6 @@
     <mergeCell ref="D50:G50"/>
     <mergeCell ref="H50:L50"/>
     <mergeCell ref="D51:G51"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="H54:L54"/>
-    <mergeCell ref="H52:L52"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="H53:L53"/>
-    <mergeCell ref="D53:G53"/>
     <mergeCell ref="H26:L26"/>
     <mergeCell ref="D26:G26"/>
     <mergeCell ref="D43:G43"/>
@@ -7980,9 +7927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD18FD45-BEF1-4A24-8E9E-51DEF25B9A61}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomLeft" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
